--- a/files/表结构/进站-中期考核.xlsx
+++ b/files/表结构/进站-中期考核.xlsx
@@ -1,194 +1,156 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28623"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\博士后管理系统\数据库表字段\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF209F45-9D7A-44A1-AEAE-4EFBC74A4210}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38505" yWindow="0" windowWidth="19410" windowHeight="20985" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="29868" windowHeight="13380"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="68">
   <si>
     <t>字段</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>数据类型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>博士后基本情况</t>
   </si>
   <si>
     <t>博士后姓名</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>字符</t>
   </si>
   <si>
     <t>性别</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>国籍</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>民族</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>出生地</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>出生年月</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>时间</t>
   </si>
   <si>
     <t>政治面貌</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>进站时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>进站专业</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>合作导师</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>博士后基本情况</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>主要学习经历</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>起止时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>在何学校学习</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>学习专业</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>获得学位</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>指导老师</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>主要工作经历</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>工作单位及职务</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>字符</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>博士后在站期间取得的科研成果</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>发表论文名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>刊物名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>刊物类别</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>第一署名单位</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>发表时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>排名</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>获得基金项目名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>基金名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>经费</t>
   </si>
   <si>
     <t>项目依托单位</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>批准
 时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>专利成果名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>专利类型及编号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>产权单位</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>申报时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>获奖成果名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>奖励部门及等级</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>获奖时间</t>
@@ -198,113 +160,95 @@
   </si>
   <si>
     <t>主持研究的项目名称及研究计划</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>博士后本人中期工作小结（包括项目进展情况、后期研究计划及参与的其它工作等）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>博士后签字</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>电子签名</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>考核情况</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>指导小组意见</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>指导小组负责人（合作导师）签字</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>考核组人员基本情况</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>姓名</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>工作党委</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>职务或职称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>专业及研究方向</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>签字</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>考核组综合意见</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">考核组长签字（盖章）  </t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>电子签名/电子签章</t>
   </si>
   <si>
     <t>投票情况（按实际票数填写）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>优秀</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>良好</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>合格</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>不合格</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>设站单位意见</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>负责人签字（公章）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>电子签名/电子签章</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>test</t>
+  </si>
+  <si>
+    <t>value</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="等线"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -313,7 +257,6 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -321,12 +264,162 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -339,8 +432,194 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -348,30 +627,316 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="货币" xfId="2" builtinId="4"/>
+    <cellStyle name="百分比" xfId="3" builtinId="5"/>
+    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
+    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
+    <cellStyle name="超链接" xfId="6" builtinId="8"/>
+    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
+    <cellStyle name="注释" xfId="8" builtinId="10"/>
+    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
+    <cellStyle name="标题" xfId="10" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
+    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="输入" xfId="16" builtinId="20"/>
+    <cellStyle name="输出" xfId="17" builtinId="21"/>
+    <cellStyle name="计算" xfId="18" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
+    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="好" xfId="22" builtinId="26"/>
+    <cellStyle name="差" xfId="23" builtinId="27"/>
+    <cellStyle name="适中" xfId="24" builtinId="28"/>
+    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
+    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
+    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
+    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -420,7 +985,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic Light"/>
@@ -455,7 +1020,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic"/>
@@ -629,29 +1194,24 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B68"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:B69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="B68" sqref="B68"/>
+    <sheetView tabSelected="1" topLeftCell="A48" workbookViewId="0">
+      <selection activeCell="E71" sqref="E71"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" width="77.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="77.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -659,377 +1219,377 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2">
       <c r="A2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="1"/>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="1"/>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
+      <c r="B10" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1">
+      <c r="A13" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" t="s">
+        <v>16</v>
+      </c>
+      <c r="B14" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" t="s">
+        <v>17</v>
+      </c>
+      <c r="B15" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" t="s">
+        <v>18</v>
+      </c>
+      <c r="B16" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" t="s">
+        <v>19</v>
+      </c>
+      <c r="B17" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" t="s">
+        <v>20</v>
+      </c>
+      <c r="B18" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1">
+      <c r="A19" s="3" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>7</v>
-      </c>
-      <c r="B8" t="s">
+    <row r="20" spans="1:2">
+      <c r="A20" t="s">
+        <v>16</v>
+      </c>
+      <c r="B20" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>9</v>
-      </c>
-      <c r="B10" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>10</v>
-      </c>
-      <c r="B11" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>11</v>
-      </c>
-      <c r="B12" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A13" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>14</v>
-      </c>
-      <c r="B14" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>15</v>
-      </c>
-      <c r="B15" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>16</v>
-      </c>
-      <c r="B16" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
-        <v>17</v>
-      </c>
-      <c r="B17" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
+      <c r="B21" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" t="s">
         <v>18</v>
       </c>
-      <c r="B18" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A19" s="3" t="s">
+      <c r="B22" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
-        <v>14</v>
-      </c>
-      <c r="B20" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
+      <c r="B23" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" t="s">
         <v>20</v>
       </c>
-      <c r="B21" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>16</v>
-      </c>
-      <c r="B22" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
-        <v>17</v>
-      </c>
-      <c r="B23" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
-        <v>18</v>
-      </c>
       <c r="B24" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1">
       <c r="A25" s="3" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:2">
       <c r="A26" t="s">
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
       <c r="A27" t="s">
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
       <c r="A28" t="s">
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
       <c r="A29" t="s">
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
       <c r="A30" t="s">
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
       <c r="A31" t="s">
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
       <c r="A32" t="s">
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
       <c r="A33" t="s">
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
       <c r="A34" t="s">
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
       <c r="A35" t="s">
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" ht="28" x14ac:dyDescent="0.3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="36" ht="27.6" spans="1:2">
       <c r="A36" s="4" t="s">
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2">
       <c r="A37" t="s">
         <v>29</v>
       </c>
       <c r="B37" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2">
       <c r="A38" t="s">
         <v>35</v>
       </c>
       <c r="B38" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2">
       <c r="A39" t="s">
         <v>36</v>
       </c>
       <c r="B39" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2">
       <c r="A40" t="s">
         <v>37</v>
       </c>
       <c r="B40" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2">
       <c r="A41" t="s">
         <v>38</v>
       </c>
       <c r="B41" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2">
       <c r="A42" t="s">
         <v>29</v>
       </c>
       <c r="B42" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2">
       <c r="A43" t="s">
         <v>39</v>
       </c>
       <c r="B43" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2">
       <c r="A44" t="s">
         <v>40</v>
       </c>
       <c r="B44" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2">
       <c r="A45" t="s">
         <v>41</v>
       </c>
       <c r="B45" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2">
       <c r="A46" t="s">
         <v>29</v>
       </c>
       <c r="B46" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1">
       <c r="A47" s="3" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:2">
       <c r="A48" t="s">
         <v>43</v>
       </c>
       <c r="B48" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2">
       <c r="A49" t="s">
         <v>44</v>
       </c>
       <c r="B49" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2">
       <c r="A50" t="s">
         <v>45</v>
       </c>
@@ -1037,20 +1597,20 @@
         <v>46</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:1">
       <c r="A51" s="3" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:2">
       <c r="A52" t="s">
         <v>48</v>
       </c>
       <c r="B52" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2">
       <c r="A53" t="s">
         <v>49</v>
       </c>
@@ -1058,122 +1618,130 @@
         <v>46</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:1">
       <c r="A54" s="3" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:2">
       <c r="A55" t="s">
         <v>51</v>
       </c>
       <c r="B55" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2">
       <c r="A56" t="s">
         <v>52</v>
       </c>
       <c r="B56" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2">
       <c r="A57" t="s">
         <v>53</v>
       </c>
       <c r="B57" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2">
       <c r="A58" t="s">
         <v>54</v>
       </c>
       <c r="B58" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2">
       <c r="A59" t="s">
         <v>55</v>
       </c>
       <c r="B59" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2">
       <c r="A60" t="s">
         <v>56</v>
       </c>
       <c r="B60" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2">
       <c r="A61" t="s">
         <v>57</v>
       </c>
       <c r="B61" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1">
+      <c r="A62" s="3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2">
+      <c r="A63" t="s">
+        <v>60</v>
+      </c>
+      <c r="B63" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2">
+      <c r="A64" t="s">
+        <v>61</v>
+      </c>
+      <c r="B64" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2">
+      <c r="A65" t="s">
+        <v>62</v>
+      </c>
+      <c r="B65" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2">
+      <c r="A66" t="s">
+        <v>63</v>
+      </c>
+      <c r="B66" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2">
+      <c r="A67" t="s">
+        <v>64</v>
+      </c>
+      <c r="B67" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2">
+      <c r="A68" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A62" s="3" t="s">
+      <c r="B68" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A63" t="s">
-        <v>59</v>
-      </c>
-      <c r="B63" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A64" t="s">
-        <v>60</v>
-      </c>
-      <c r="B64" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A65" t="s">
-        <v>61</v>
-      </c>
-      <c r="B65" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A66" t="s">
-        <v>62</v>
-      </c>
-      <c r="B66" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A67" t="s">
-        <v>63</v>
-      </c>
-      <c r="B67" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A68" t="s">
-        <v>64</v>
-      </c>
-      <c r="B68" t="s">
-        <v>65</v>
+    <row r="69" spans="1:2">
+      <c r="A69" t="s">
+        <v>66</v>
+      </c>
+      <c r="B69" t="s">
+        <v>67</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/files/表结构/进站-中期考核.xlsx
+++ b/files/表结构/进站-中期考核.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="66">
   <si>
     <t>字段</t>
   </si>
@@ -226,12 +226,6 @@
   </si>
   <si>
     <t>负责人签字（公章）</t>
-  </si>
-  <si>
-    <t>test</t>
-  </si>
-  <si>
-    <t>value</t>
   </si>
 </sst>
 </file>
@@ -244,7 +238,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -254,20 +248,6 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
@@ -728,19 +708,28 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -749,134 +738,125 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1200,10 +1180,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B69"/>
+  <dimension ref="A1:B68"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A48" workbookViewId="0">
-      <selection activeCell="E71" sqref="E71"/>
+      <selection activeCell="F72" sqref="F72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" outlineLevelCol="1"/>
@@ -1732,14 +1712,6 @@
         <v>58</v>
       </c>
     </row>
-    <row r="69" spans="1:2">
-      <c r="A69" t="s">
-        <v>66</v>
-      </c>
-      <c r="B69" t="s">
-        <v>67</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
